--- a/boards/t-internet-com/PickAndPlace.xlsx
+++ b/boards/t-internet-com/PickAndPlace.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="123">
   <si>
     <t>Designator</t>
   </si>
@@ -370,22 +370,16 @@
     <t>Level Shifter Footprint</t>
   </si>
   <si>
-    <t>21.979mm</t>
-  </si>
-  <si>
-    <t>21.338mm</t>
-  </si>
-  <si>
-    <t>16.51mm</t>
-  </si>
-  <si>
-    <t>13.335mm</t>
-  </si>
-  <si>
-    <t>17.78mm</t>
-  </si>
-  <si>
-    <t>15.051mm</t>
+    <t>21.101mm</t>
+  </si>
+  <si>
+    <t>21.274mm</t>
+  </si>
+  <si>
+    <t>16.002mm</t>
+  </si>
+  <si>
+    <t>14.924mm</t>
   </si>
 </sst>
 </file>
@@ -1536,16 +1530,16 @@
         <v>120</v>
       </c>
       <c r="F18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
         <v>121</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>122</v>
-      </c>
-      <c r="H18" t="s">
-        <v>123</v>
-      </c>
-      <c r="I18" t="s">
-        <v>124</v>
       </c>
       <c r="J18">
         <v>12</v>
